--- a/WebContent/docs/BPM前期项目准备_20171019.xlsx
+++ b/WebContent/docs/BPM前期项目准备_20171019.xlsx
@@ -12,10 +12,11 @@
     <sheet name="中间接口和类信息" sheetId="1" r:id="rId3"/>
     <sheet name="数据表信息" sheetId="2" r:id="rId4"/>
     <sheet name="待解决问题" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="接口信息" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">待解决问题!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">接口信息!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">项目包名详细!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">中间接口和类信息!$A$1:$F$1</definedName>
   </definedNames>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="233">
   <si>
     <t>java类名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -734,6 +735,110 @@
   </si>
   <si>
     <t>流程引擎服务运行一段时间后，会产生大量的数据，数据量越大，系统运行速度会随之减慢；经分析数据库【查询】操作相对于【更新】操作执行量更大一些，故需要做读写分离。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口方法详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现类路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切面类路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切面类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切面方法详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn.songzx.helloworld.oabiz.wf.service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OABizWFServiceI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startProcessInstanceByKey(..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWFWorkitemByPK(..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWFBizDataByProcInstId(..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>completeWorkitemByPK(..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addWFBizData(..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addWFWorkitem(..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addWFAuditRecord(..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyWFWorkitem(..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyWFAuditRecord(..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyWFBizData(..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyBizBillInfoAfterProcInstEnd(..)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -988,6 +1093,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1000,68 +1106,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1047750" y="447675"/>
-          <a:ext cx="1809750" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>调用</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1725,8 +1769,8 @@
   </sheetPr>
   <dimension ref="A1:F493"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6466,17 +6510,440 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>